--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1099.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1099.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146344557202267</v>
+        <v>1.177197694778442</v>
       </c>
       <c r="B1">
-        <v>2.037302912506441</v>
+        <v>2.420051574707031</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.919932228502431</v>
+        <v>2.332631587982178</v>
       </c>
       <c r="E1">
-        <v>1.151412557781342</v>
+        <v>1.202049732208252</v>
       </c>
     </row>
   </sheetData>
